--- a/MSCI261w1.xlsx
+++ b/MSCI261w1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,26 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ludwig\Documents\msci261\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B3A3D12-10B6-467E-A3C2-30635EB5F4EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630CF6B2-576B-448A-B696-24F0CD1A5ADC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ABSOLUTE AND RELATIVE ADDRESSES" sheetId="1" r:id="rId1"/>
     <sheet name="ARITHMETICS" sheetId="2" r:id="rId2"/>
     <sheet name="CH1Q1" sheetId="3" r:id="rId3"/>
-    <sheet name="CH2Q04" sheetId="5" r:id="rId4"/>
+    <sheet name="CH2Q02" sheetId="5" r:id="rId4"/>
     <sheet name="CH1Q2" sheetId="4" r:id="rId5"/>
-    <sheet name="CH2Q05" sheetId="6" r:id="rId6"/>
-    <sheet name="CH2Q06" sheetId="8" r:id="rId7"/>
-    <sheet name="CH2Q07" sheetId="9" r:id="rId8"/>
-    <sheet name="CH2Q08" sheetId="10" r:id="rId9"/>
-    <sheet name="CH2Q09Optional" sheetId="11" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="HAMMADDE">[1]HESAPLAMALAR!$B$2:$B$7</definedName>
@@ -52,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>ABSOLUTE</t>
   </si>
@@ -120,9 +115,6 @@
     <t>a.</t>
   </si>
   <si>
-    <t>NPV</t>
-  </si>
-  <si>
     <t>b.</t>
   </si>
   <si>
@@ -138,49 +130,10 @@
     <t>e.</t>
   </si>
   <si>
-    <t>Interest Rate</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
     <t>PV</t>
   </si>
   <si>
-    <t>maturity</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>interest rate</t>
-  </si>
-  <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>From Formula</t>
-  </si>
-  <si>
-    <t>Lottery</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>Payments per Period</t>
-  </si>
-  <si>
-    <t>Payments</t>
-  </si>
-  <si>
-    <t>PV of Pmts</t>
-  </si>
-  <si>
-    <t>NPV of Pmts</t>
   </si>
   <si>
     <t>a. 1 year later</t>
@@ -210,10 +163,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot; TL&quot;_-;\-* #,##0.00&quot; TL&quot;_-;_-* \-??&quot; TL&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00&quot; TL&quot;;[Red]\-#,##0.00&quot; TL&quot;"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -365,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -541,125 +493,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="59"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="59"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="59"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="59"/>
-      </right>
-      <top style="medium">
-        <color indexed="59"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="59"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="59"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="59"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="59"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="59"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="59"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="59"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="53"/>
-      </left>
-      <right style="thin">
-        <color indexed="53"/>
-      </right>
-      <top style="thin">
-        <color indexed="53"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="53"/>
-      </left>
-      <right style="thin">
-        <color indexed="53"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="53"/>
-      </left>
-      <right style="thin">
-        <color indexed="53"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="53"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -668,15 +503,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -709,48 +539,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="7" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="14"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="9"/>
   </cellXfs>
-  <cellStyles count="15">
-    <cellStyle name="60% - Accent2" xfId="14" builtinId="36"/>
-    <cellStyle name="Currency 2" xfId="1"/>
-    <cellStyle name="Excel_BuiltIn_20% - Accent2" xfId="13"/>
-    <cellStyle name="Excel_BuiltIn_40% - Accent2" xfId="10"/>
-    <cellStyle name="Excel_BuiltIn_40% - Accent5" xfId="8"/>
-    <cellStyle name="Excel_BuiltIn_Accent1" xfId="12"/>
-    <cellStyle name="Excel_BuiltIn_Accent2" xfId="9"/>
-    <cellStyle name="Excel_BuiltIn_Accent4" xfId="6"/>
-    <cellStyle name="Excel_BuiltIn_Accent5" xfId="4"/>
-    <cellStyle name="Excel_BuiltIn_Accent6" xfId="11"/>
-    <cellStyle name="Excel_BuiltIn_Linked Cell" xfId="5"/>
-    <cellStyle name="Excel_BuiltIn_Output" xfId="7"/>
+  <cellStyles count="10">
+    <cellStyle name="60% - Accent2" xfId="9" builtinId="36"/>
+    <cellStyle name="Currency 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Excel_BuiltIn_20% - Accent2" xfId="8" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Excel_BuiltIn_Accent4" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Excel_BuiltIn_Accent5" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Excel_BuiltIn_Linked Cell" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Excel_BuiltIn_Output" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -838,15 +639,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27213</xdr:colOff>
+      <xdr:colOff>27214</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>168729</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
@@ -863,8 +664,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="27213" y="0"/>
-          <a:ext cx="3951515" cy="1692729"/>
+          <a:off x="27214" y="0"/>
+          <a:ext cx="4381500" cy="2476500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -909,12 +710,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Trump’s father left Donald a small loan amounts $60.7 million in 1975. If he didn’t start up a business but have invested in interest rate of 2.25% per annum,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
+            <a:t>Trump’s father left Donald a small loan amounts $60.7 million in 1975. If he didn’t start up a business but have invested in interest rate of 2.25% per annum:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -982,7 +780,41 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>d) Calculate and plot the money in his bank account for the 44 years.</a:t>
+            <a:t>d) Donald didn't invest his money to interest, he started up a business. His net worth is 3.1 billion. Do you think he did the right thing?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>e) What is the rate of capital he generated per annum if his net worth is 3.1 billion today?</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>f) Assume average return of stock market is 10%. If Donald invested his money to stock market would he had more net worth? </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1589,668 +1421,6 @@
             <a:latin typeface="Calibri"/>
             <a:cs typeface="Calibri"/>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6145" name="Rounded Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62FDDC40-777A-4BAB-874F-9349515EBA80}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="190500"/>
-          <a:ext cx="6600825" cy="3048000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25560" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="4F81BD"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="20160" tIns="20160" rIns="20160" bIns="20160" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Norman Gerrymander has just received a $2 million bequest. How should he invest it?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>There are four immediate alternatives.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>a. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Investment in one-year U.S. government securities yielding 5 percent.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>b. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Investment in the stock market. The expected rate of return is 12 percent.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>c. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Investment in local real estate, which Norman judges is about as risky as the stock</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>market. The opportunity at hand would cost $1 million and is forecasted to be</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>worth $1.1 million after one year.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Which of these investments have positive NPVs? Which would you advise Norman</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>to take?</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8193" name="Rounded Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08D42CF3-6057-426E-BF49-D276E76F7166}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="66675" y="190500"/>
-          <a:ext cx="6762750" cy="2286000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25560" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="4F81BD"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="20160" tIns="20160" rIns="20160" bIns="20160" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>A factory costs $400,000. You reckon that it will produce an inflow after operating costs of $100,000 in year 1, $200,000 in year 2, and $300,000 in year 3. The opportunity cost of capital is 12 percent. Draw up a worksheet like that shown in Table 3.1 and use tables to calculate the NPV.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9217" name="Rounded Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2C2CAB-BAE2-4185-A8B1-37A5F5D4DAF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="66675" y="190500"/>
-          <a:ext cx="6734175" cy="2286000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25560" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="4F81BD"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="20160" tIns="20160" rIns="20160" bIns="20160" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>You own an oil pipeline which will generate a $2 million cash return over the coming year. The pipeline’s operating costs are negligible, and it is expected to last for a very long time. Unfortunately, the volume of oil shipped is declining, and cash flows are expected to decline by 4 percent per year. The discount rate is 10 percent.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>a. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>What is the PV of the pipeline’s cash flows if its cash flows are assumed to last</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>forever?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>b. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>What is the PV of the cash flows if the pipeline is scrapped after 20 years?</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10241" name="Rounded Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB050A7-6BE8-43D7-BE6C-E357ED561BCB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6858000" cy="1466850"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25560" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="C0504D"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="20160" tIns="20160" rIns="20160" bIns="20160" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>You win a lottery with a prize of $1.5 million. Unfortunately the prize is paid in 10 annual installments. The first payment is next year. How much is the prize really worth? The discount rate is 8 percent.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11265" name="Rounded Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{095724A9-0C5A-450D-918F-01B1C297D445}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6381750" cy="1828800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25560" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="C0504D"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="20160" tIns="20160" rIns="20160" bIns="20160" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Ahu has just started her 3 year high school education and aims to apply Istanbul Bilgi University whose tuition is 25000 per year. Her father wants to support her college(university) education by saving up a constant amount (C) starting from the beginning of every year until she starts college. How much must his father put by every year if the interest rate is constant at 8%</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2763,12 +1933,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2829,94 +1997,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A12:H16"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="42">
-        <v>25000</v>
-      </c>
-      <c r="E12" s="35">
-        <v>0</v>
-      </c>
-      <c r="F12" s="35">
-        <v>1</v>
-      </c>
-      <c r="G12" s="35">
-        <v>2</v>
-      </c>
-      <c r="H12" s="35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="42">
-        <v>0.08</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13">
-        <f>$B$12</f>
-        <v>25000</v>
-      </c>
-      <c r="F13">
-        <f>$B$12</f>
-        <v>25000</v>
-      </c>
-      <c r="G13">
-        <f>$B$12</f>
-        <v>25000</v>
-      </c>
-      <c r="H13">
-        <f>$B$12</f>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3051,418 +2136,416 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A11:C96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A15:C100"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
         <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>1978</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>1979</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>1980</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>1981</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>1982</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>1983</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>1984</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>1985</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>1986</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>1987</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>1988</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>1989</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>1990</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42">
-        <v>1991</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>1992</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>1993</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>1994</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>1995</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>1996</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>1997</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>1998</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>1999</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>2000</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>2001</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>2002</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>2003</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>2004</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>2005</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>2006</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>2007</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>2008</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>2009</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>2010</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62">
-        <v>2011</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>2012</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64">
-        <v>2013</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>2014</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66">
-        <v>2015</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67">
-        <v>2016</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68">
-        <v>2017</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70">
-        <v>2019</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72">
-        <v>2021</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73">
-        <v>2022</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74">
-        <v>2023</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75">
-        <v>2024</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76">
-        <v>2025</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77">
-        <v>2026</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78">
-        <v>2027</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79">
-        <v>2028</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80">
-        <v>2029</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81">
-        <v>2030</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82">
-        <v>2031</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83">
-        <v>2032</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84">
-        <v>2033</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85">
-        <v>2034</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86">
-        <v>2035</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87">
-        <v>2036</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88">
-        <v>2037</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89">
-        <v>2038</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90">
-        <v>2039</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91">
-        <v>2040</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92">
-        <v>2041</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93">
-        <v>2042</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94">
-        <v>2043</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95">
-        <v>2044</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100">
         <v>2045</v>
       </c>
     </row>
@@ -3479,12 +2562,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A14:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3495,56 +2576,56 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" s="21"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B21" s="21"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B27" s="21"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B33" s="21"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B40" s="21"/>
     </row>
@@ -3558,12 +2639,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3579,584 +2658,4 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="M3:S19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="M3" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="24"/>
-    </row>
-    <row r="4" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="M4" s="25"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="27"/>
-    </row>
-    <row r="5" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="M5" s="25"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="27"/>
-    </row>
-    <row r="6" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="27"/>
-    </row>
-    <row r="7" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="30"/>
-    </row>
-    <row r="9" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="M9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="24"/>
-    </row>
-    <row r="10" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="M10" s="25"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="27"/>
-    </row>
-    <row r="11" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="M11" s="25"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="27"/>
-    </row>
-    <row r="12" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="27"/>
-    </row>
-    <row r="13" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="M13" s="28"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="30"/>
-    </row>
-    <row r="15" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="M15" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="24"/>
-    </row>
-    <row r="16" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="M16" s="25"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="27"/>
-    </row>
-    <row r="17" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="M17" s="25"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="27"/>
-    </row>
-    <row r="18" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="M18" s="25"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="27"/>
-    </row>
-    <row r="19" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="M19" s="28"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="30"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A15:E21"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="21"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="31">
-        <v>0</v>
-      </c>
-      <c r="C17" s="31">
-        <v>1</v>
-      </c>
-      <c r="D17" s="31">
-        <v>2</v>
-      </c>
-      <c r="E17" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="21"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A15:G46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="34"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="34"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="34"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="E20" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="36">
-        <v>0</v>
-      </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="37">
-        <v>1</v>
-      </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="37">
-        <v>2</v>
-      </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="37">
-        <v>3</v>
-      </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="37">
-        <v>4</v>
-      </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="37">
-        <v>5</v>
-      </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E27" s="37">
-        <v>6</v>
-      </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E28" s="37">
-        <v>7</v>
-      </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E29" s="37">
-        <v>8</v>
-      </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E30" s="37">
-        <v>9</v>
-      </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E31" s="37">
-        <v>10</v>
-      </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E32" s="37">
-        <v>11</v>
-      </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E33" s="37">
-        <v>12</v>
-      </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E34" s="37">
-        <v>13</v>
-      </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="37">
-        <v>14</v>
-      </c>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-    </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E36" s="37">
-        <v>15</v>
-      </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-    </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E37" s="37">
-        <v>16</v>
-      </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-    </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E38" s="37">
-        <v>17</v>
-      </c>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-    </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E39" s="37">
-        <v>18</v>
-      </c>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-    </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E40" s="37">
-        <v>19</v>
-      </c>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-    </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E41" s="38">
-        <v>20</v>
-      </c>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-    </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F43" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="21"/>
-    </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F45" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" s="43"/>
-    </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F46" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="21"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="1">
-    <mergeCell ref="F45:G45"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:G23"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="36">
-        <v>0</v>
-      </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="E12" s="37">
-        <v>1</v>
-      </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="37">
-        <v>2</v>
-      </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E14" s="37">
-        <v>3</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
-      <c r="E15" s="37">
-        <v>4</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E16" s="37">
-        <v>5</v>
-      </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="37">
-        <v>6</v>
-      </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" s="37">
-        <v>7</v>
-      </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="37">
-        <v>8</v>
-      </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="37">
-        <v>9</v>
-      </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="38">
-        <v>10</v>
-      </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="21"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/MSCI261w1.xlsx
+++ b/MSCI261w1.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ludwig\Documents\msci261\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630CF6B2-576B-448A-B696-24F0CD1A5ADC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0E2D7B-7EBB-4623-AF7A-DF2EAE116564}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ABSOLUTE AND RELATIVE ADDRESSES" sheetId="1" r:id="rId1"/>
     <sheet name="ARITHMETICS" sheetId="2" r:id="rId2"/>
-    <sheet name="CH1Q1" sheetId="3" r:id="rId3"/>
-    <sheet name="CH2Q02" sheetId="5" r:id="rId4"/>
-    <sheet name="CH1Q2" sheetId="4" r:id="rId5"/>
+    <sheet name="FV" sheetId="3" r:id="rId3"/>
+    <sheet name="PV" sheetId="5" r:id="rId4"/>
+    <sheet name="NPV" sheetId="6" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>ABSOLUTE</t>
   </si>
@@ -76,9 +76,6 @@
     <t xml:space="preserve"> =F2+G2*H2</t>
   </si>
   <si>
-    <t>ARİTMETİK OPERATÖRLER</t>
-  </si>
-  <si>
     <t xml:space="preserve"> =(3+3)*2</t>
   </si>
   <si>
@@ -124,18 +121,12 @@
     <t>c.</t>
   </si>
   <si>
-    <t>d.</t>
-  </si>
-  <si>
     <t>e.</t>
   </si>
   <si>
     <t>PV</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>a. 1 year later</t>
   </si>
   <si>
@@ -151,20 +142,30 @@
     <t>c. 44 years later</t>
   </si>
   <si>
-    <t>Account</t>
-  </si>
-  <si>
     <t xml:space="preserve">d. </t>
   </si>
   <si>
     <t>Alternative Solution</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Interest Rate</t>
+  </si>
+  <si>
+    <t>Arithmetic Operations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot; TL&quot;_-;\-* #,##0.00&quot; TL&quot;_-;_-* \-??&quot; TL&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
@@ -231,7 +232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,26 +265,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="60"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="45"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="53"/>
         <bgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="56"/>
       </patternFill>
     </fill>
     <fill>
@@ -494,7 +477,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -503,33 +486,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -539,12 +523,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="7" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="60% - Accent2" xfId="9" builtinId="36"/>
     <cellStyle name="Currency 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Excel_BuiltIn_20% - Accent2" xfId="8" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Excel_BuiltIn_40% - Accent5" xfId="10" xr:uid="{48568184-A9AB-4377-A9A3-3A7D0051DC54}"/>
     <cellStyle name="Excel_BuiltIn_Accent4" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Excel_BuiltIn_Accent5" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Excel_BuiltIn_Linked Cell" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
@@ -782,21 +770,6 @@
             </a:rPr>
             <a:t>d) Donald didn't invest his money to interest, he started up a business. His net worth is 3.1 billion. Do you think he did the right thing?</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>e) What is the rate of capital he generated per annum if his net worth is 3.1 billion today?</a:t>
-          </a:r>
           <a:br>
             <a:rPr lang="en-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -814,7 +787,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>f) Assume average return of stock market is 10%. If Donald invested his money to stock market would he had more net worth? </a:t>
+            <a:t>e) Assume average return of stock market is 10%. If Donald invested his money to stock market would he had more net worth? </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -831,13 +804,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
@@ -854,8 +827,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="200025"/>
-          <a:ext cx="6600825" cy="1885950"/>
+          <a:off x="0" y="200024"/>
+          <a:ext cx="6559826" cy="2085975"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -955,6 +928,59 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>c. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>$19,000 for each of 10 years.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:pPr algn="l" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
@@ -966,7 +992,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>c. </a:t>
+            <a:t>d (optional). </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -991,23 +1017,25 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>d. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>e </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>$19,000 for each of 10 years.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>(optional)</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -1016,7 +1044,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>e. </a:t>
+            <a:t>. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -1159,13 +1187,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1216,67 +1244,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5125" name="Straight Connector 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2891E57-3495-4873-827A-331005DD1A18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="47625" y="6477000"/>
-          <a:ext cx="4448175" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25560" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw dist="20160" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38034"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1285,22 +1252,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>141515</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>168729</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Rounded Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF89743E-47B8-45C0-9481-C5A4656CC17C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{240B1A96-5CAE-42D3-837C-D623E24A1BE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1310,8 +1277,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="1333500"/>
-          <a:ext cx="3951515" cy="1692729"/>
+          <a:off x="66675" y="190500"/>
+          <a:ext cx="6534150" cy="2286000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1350,77 +1317,57 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-CA" sz="1000" b="0" i="0" u="none" strike="noStrike">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+            <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>You found love of your life, immediately married and expecting a baby very soon. A good friend of yours</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1000" b="0" i="0" u="none" strike="noStrike">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>have advised that if you invest a decent amount of money on stock market, which on average have 10% return,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1000" b="0" i="0" u="none" strike="noStrike">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>your child can study at University of Waterloo 18 years later where education costs (fees, accommodation, living etc.)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1000" b="0" i="0" u="none" strike="noStrike">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>are estimated to be 500000 CAD altogether. Assuming stock market return will be constant for this period how </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1000" b="0" i="0" u="none" strike="noStrike">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>much should you invest in stock market to fund your beloved’s education?</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:t>A factory costs $400,000. You reckon that it will produce an inflow after operating costs of $100,000 in year 1, $200,000 in year 2, and $300,000 in year 3. The opportunity cost of capital is 12 percent. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:latin typeface="Calibri"/>
             <a:cs typeface="Calibri"/>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>  a) Calculate NPV of this investment</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>  b) Calculate the IRR of this investment </a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2031,16 +1978,16 @@
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="14" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="11"/>
       <c r="D3" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="11">
@@ -2056,16 +2003,16 @@
         <v>1</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="11"/>
       <c r="D4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="11">
@@ -2081,16 +2028,16 @@
         <v>2</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="11"/>
       <c r="D5" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="11">
@@ -2106,7 +2053,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2114,7 +2061,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2122,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2137,7 +2084,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A15:C100"/>
+  <dimension ref="A15:C31"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
@@ -2145,410 +2092,53 @@
   <sheetData>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>32</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100">
-        <v>2045</v>
-      </c>
-    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -2563,71 +2153,67 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A14:B40"/>
+  <dimension ref="A14:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="21"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" s="21"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
-        <v>24</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="25"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="25"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="25"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="25"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="25"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="21"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="21"/>
+      <c r="B31" s="21"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2639,23 +2225,57 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E039E4-40A9-4907-904E-C0A7B20F7727}">
+  <dimension ref="A15:E21"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="256" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="21"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="24">
+        <v>0</v>
+      </c>
+      <c r="C17" s="24">
+        <v>1</v>
+      </c>
+      <c r="D17" s="24">
+        <v>2</v>
+      </c>
+      <c r="E17" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="21"/>
+    </row>
+  </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MSCI261w1.xlsx
+++ b/MSCI261w1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ludwig\Documents\msci261\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0E2D7B-7EBB-4623-AF7A-DF2EAE116564}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9127E88-9045-4968-921F-B172A36A719C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>ABSOLUTE</t>
   </si>
@@ -121,30 +121,15 @@
     <t>c.</t>
   </si>
   <si>
-    <t>e.</t>
-  </si>
-  <si>
     <t>PV</t>
   </si>
   <si>
-    <t>a. 1 year later</t>
-  </si>
-  <si>
     <t>Capital</t>
   </si>
   <si>
     <t>Interest</t>
   </si>
   <si>
-    <t>b. 2 years later</t>
-  </si>
-  <si>
-    <t>c. 44 years later</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d. </t>
-  </si>
-  <si>
     <t>Alternative Solution</t>
   </si>
   <si>
@@ -154,19 +139,41 @@
     <t>CF</t>
   </si>
   <si>
-    <t>Interest Rate</t>
-  </si>
-  <si>
     <t>Arithmetic Operations</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>PV(pmts)</t>
+  </si>
+  <si>
+    <t>OCC</t>
+  </si>
+  <si>
+    <t>a. 2 years later</t>
+  </si>
+  <si>
+    <t>b. 44 years later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c. </t>
+  </si>
+  <si>
+    <t>d.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot; TL&quot;_-;\-* #,##0.00&quot; TL&quot;_-;_-* \-??&quot; TL&quot;_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -490,7 +497,7 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -524,9 +531,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="7" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="170" fontId="6" fillId="4" borderId="2" xfId="7" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="60% - Accent2" xfId="9" builtinId="36"/>
@@ -713,7 +725,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>a) How much Donald would have if he invested for 1 year?</a:t>
+            <a:t>a) How much Donald would have if he invested for 2 years?</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-CA" sz="1100"/>
@@ -731,25 +743,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>b) How much Donald would have if he invested for 2 years?</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>c) What would be his worth (before tax) by 2019 (44 years later)?</a:t>
+            <a:t>b) What would be his worth (before tax) by 2019 (44 years later)?</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-CA" sz="1100"/>
@@ -768,7 +762,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>d) Donald didn't invest his money to interest, he started up a business. His net worth is 3.1 billion. Do you think he did the right thing?</a:t>
+            <a:t>c) Donald didn't invest his money to interest, he started up a business. His net worth is 3.1 billion. Do you think he did the right thing?</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -787,7 +781,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>e) Assume average return of stock market is 10%. If Donald invested his money to stock market would he had more net worth? </a:t>
+            <a:t>d) Assume average return of stock market is 10%. If Donald invested his money to stock market would he had more net worth? </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1978,7 +1972,7 @@
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2084,61 +2078,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A15:C31"/>
+  <dimension ref="A15:C28"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B16" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="24"/>
+    </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="24"/>
+    </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -2153,9 +2146,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A14:B31"/>
+  <dimension ref="A14:L31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2169,49 +2162,90 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="21"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="21"/>
     </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="25">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>7</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+      <c r="K26">
+        <v>9</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="24"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="24"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="24"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="24"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="21"/>
     </row>
@@ -2228,46 +2262,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E039E4-40A9-4907-904E-C0A7B20F7727}">
   <dimension ref="A15:E21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="21"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="24">
+      <c r="A17" s="29"/>
+      <c r="B17" s="23">
         <v>0</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <v>1</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="23">
         <v>2</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>34</v>
-      </c>
+      <c r="A18" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>25</v>
-      </c>
+      <c r="A19" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B21" s="21"/>
     </row>

--- a/MSCI261w1.xlsx
+++ b/MSCI261w1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ludwig\Documents\msci261\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9127E88-9045-4968-921F-B172A36A719C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4DAB402-4734-432B-81B3-F1DFEF599CCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>ABSOLUTE</t>
   </si>
@@ -73,33 +73,21 @@
     <t xml:space="preserve"> =3+3*2</t>
   </si>
   <si>
-    <t xml:space="preserve"> =F2+G2*H2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> =(3+3)*2</t>
   </si>
   <si>
-    <t xml:space="preserve"> =(F3+G3)*H3</t>
-  </si>
-  <si>
     <t>()</t>
   </si>
   <si>
     <t xml:space="preserve"> =3*3^2</t>
   </si>
   <si>
-    <t xml:space="preserve"> =F4*G4^H4</t>
-  </si>
-  <si>
     <t>^</t>
   </si>
   <si>
     <t xml:space="preserve"> =(3*3)^2</t>
   </si>
   <si>
-    <t xml:space="preserve"> =(F5*G5)^H5</t>
-  </si>
-  <si>
     <t>* , /</t>
   </si>
   <si>
@@ -151,9 +139,6 @@
     <t>PV(pmts)</t>
   </si>
   <si>
-    <t>OCC</t>
-  </si>
-  <si>
     <t>a. 2 years later</t>
   </si>
   <si>
@@ -164,24 +149,47 @@
   </si>
   <si>
     <t>d.</t>
+  </si>
+  <si>
+    <t>Cost of Capital</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Alternative</t>
+  </si>
+  <si>
+    <t>IRR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot; TL&quot;_-;\-* #,##0.00&quot; TL&quot;_-;_-* \-??&quot; TL&quot;_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.00000%"/>
+    <numFmt numFmtId="165" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -238,8 +246,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,8 +321,25 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -424,19 +456,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="59"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="59"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="59"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="11"/>
       </left>
       <right/>
@@ -484,64 +503,80 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="7" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="7" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="6" fillId="4" borderId="2" xfId="7" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="7" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="1" fillId="14" borderId="0" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="1" fillId="12" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="11" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="4" borderId="2" xfId="7" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="44" fontId="7" fillId="4" borderId="2" xfId="7" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="12"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="14">
+    <cellStyle name="40% - Accent2" xfId="13" builtinId="35"/>
+    <cellStyle name="60% - Accent1" xfId="11" builtinId="32"/>
     <cellStyle name="60% - Accent2" xfId="9" builtinId="36"/>
+    <cellStyle name="Accent2" xfId="12" builtinId="33"/>
     <cellStyle name="Currency 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Excel_BuiltIn_20% - Accent2" xfId="8" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Excel_BuiltIn_40% - Accent5" xfId="10" xr:uid="{48568184-A9AB-4377-A9A3-3A7D0051DC54}"/>
@@ -971,7 +1006,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>$19,000 for each of 10 years.</a:t>
+            <a:t>$19,000 for each of 10 years (paid at the end of each year).</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1181,14 +1216,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>83006</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>92531</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1205,8 +1240,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="57150" y="5286375"/>
-          <a:ext cx="4448175" cy="9525"/>
+          <a:off x="57150" y="6962777"/>
+          <a:ext cx="4705350" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1251,10 +1286,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1361</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="" fLocksText="0">
       <xdr:nvSpPr>
@@ -1272,7 +1307,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="66675" y="190500"/>
-          <a:ext cx="6534150" cy="2286000"/>
+          <a:ext cx="7358743" cy="2476500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1318,7 +1353,109 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>A factory costs $400,000. You reckon that it will produce an inflow after operating costs of $100,000 in year 1, $200,000 in year 2, and $300,000 in year 3. The opportunity cost of capital is 12 percent. </a:t>
+            <a:t>A factory costs $400,000. You reckon that if you</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>- Produce A, it will produce an inflow after operating costs of $100,000 in year 1, $200,000 in year 2, and $300,000 in year 3. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>- Produce B, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>it will produce an inflow after operating costs of $300,000 in year 1, $200,000 in year 2, and $100,000 in year 3.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>The opportunity cost of capital is 12 percent. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1345,7 +1482,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>  a) Calculate NPV of this investment</a:t>
+            <a:t>  a) Calculate NPV of these investments</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1360,7 +1497,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>  b) Calculate the IRR of this investment </a:t>
+            <a:t>  b) Calculate the IRR of these investments</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1940,134 +2077,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="10" width="9" customWidth="1"/>
-    <col min="11" max="12" width="24" customWidth="1"/>
+    <col min="1" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="11">
+      <c r="B3" s="11"/>
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="D4" s="16">
+        <v>2</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="D5" s="14">
         <v>3</v>
       </c>
-      <c r="G2" s="11">
-        <v>3</v>
-      </c>
-      <c r="H2" s="11">
-        <v>2</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="D3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11">
-        <v>3</v>
-      </c>
-      <c r="G3" s="11">
-        <v>3</v>
-      </c>
-      <c r="H3" s="11">
-        <v>2</v>
-      </c>
-      <c r="J3" s="15">
-        <v>1</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="D4" s="10" t="s">
+      <c r="E5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11">
-        <v>3</v>
-      </c>
-      <c r="G4" s="11">
-        <v>3</v>
-      </c>
-      <c r="H4" s="11">
-        <v>2</v>
-      </c>
-      <c r="J4" s="17">
-        <v>2</v>
-      </c>
-      <c r="K4" s="18" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="16">
+        <v>4</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="14">
+        <v>5</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="D5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11">
-        <v>3</v>
-      </c>
-      <c r="G5" s="11">
-        <v>3</v>
-      </c>
-      <c r="H5" s="11">
-        <v>2</v>
-      </c>
-      <c r="J5" s="15">
-        <v>3</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J6" s="17">
-        <v>4</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J7" s="15">
-        <v>5</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -2089,46 +2174,46 @@
   <sheetData>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="26"/>
+        <v>22</v>
+      </c>
+      <c r="B16" s="25"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>27</v>
+      <c r="A18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="24"/>
+      <c r="C19" s="23"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>27</v>
+      <c r="A21" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="24"/>
+      <c r="C22" s="23"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
-        <v>37</v>
+      <c r="A24" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
-        <v>38</v>
+      <c r="A27" s="18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2146,54 +2231,53 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A14:L31"/>
+  <dimension ref="A14:L32"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="20"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>21</v>
+      <c r="A19" s="18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="21"/>
+      <c r="A21" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="33"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
-        <v>23</v>
+      <c r="A25" s="18" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="25">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B26" s="24"/>
       <c r="C26">
         <v>1</v>
       </c>
@@ -2227,27 +2311,33 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="24"/>
+        <v>28</v>
+      </c>
+      <c r="B27" s="23"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="24"/>
+        <v>29</v>
+      </c>
+      <c r="B28" s="23"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
+      <c r="B29" s="23"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="24"/>
+      <c r="B30" s="23"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="21"/>
+      <c r="A31" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="34"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="23"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2260,77 +2350,123 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E039E4-40A9-4907-904E-C0A7B20F7727}">
-  <dimension ref="A15:E21"/>
+  <dimension ref="A16:F29"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="23">
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="22">
         <v>0</v>
       </c>
-      <c r="C17" s="23">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="22">
         <v>1</v>
       </c>
-      <c r="D17" s="23">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="22">
         <v>2</v>
       </c>
-      <c r="E17" s="23">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="21"/>
+      <c r="E26" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="23"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="E29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="36"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="2">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>